--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -782,34 +782,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -988,139 +988,139 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
           <t>injiverify</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>495</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>499</t>
-        </is>
-      </c>
       <c r="AF2" t="inlineStr">
         <is>
           <t>0</t>
@@ -1128,17 +1128,17 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1150,157 +1150,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1432,17 +1432,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>896</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>923</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1749,71 +1749,71 @@
           <t>22</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>923</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v/>
-      </c>
-      <c r="B7" t="n">
-        <v/>
-      </c>
-      <c r="C7" t="n">
-        <v/>
-      </c>
-      <c r="D7" t="n">
-        <v/>
-      </c>
-      <c r="E7" t="n">
-        <v/>
-      </c>
-      <c r="F7" t="n">
-        <v/>
-      </c>
-      <c r="G7" t="n">
-        <v/>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1895,71 +1895,71 @@
           <t>23</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>907</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v/>
-      </c>
-      <c r="B8" t="n">
-        <v/>
-      </c>
-      <c r="C8" t="n">
-        <v/>
-      </c>
-      <c r="D8" t="n">
-        <v/>
-      </c>
-      <c r="E8" t="n">
-        <v/>
-      </c>
-      <c r="F8" t="n">
-        <v/>
-      </c>
-      <c r="G8" t="n">
-        <v/>
-      </c>
-      <c r="H8" t="n">
-        <v/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -2041,71 +2041,71 @@
           <t>34</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v/>
-      </c>
-      <c r="B9" t="n">
-        <v/>
-      </c>
-      <c r="C9" t="n">
-        <v/>
-      </c>
-      <c r="D9" t="n">
-        <v/>
-      </c>
-      <c r="E9" t="n">
-        <v/>
-      </c>
-      <c r="F9" t="n">
-        <v/>
-      </c>
-      <c r="G9" t="n">
-        <v/>
-      </c>
-      <c r="H9" t="n">
-        <v/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -2187,71 +2187,71 @@
           <t>34</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
-      </c>
-      <c r="B10" t="n">
-        <v/>
-      </c>
-      <c r="C10" t="n">
-        <v/>
-      </c>
-      <c r="D10" t="n">
-        <v/>
-      </c>
-      <c r="E10" t="n">
-        <v/>
-      </c>
-      <c r="F10" t="n">
-        <v/>
-      </c>
-      <c r="G10" t="n">
-        <v/>
-      </c>
-      <c r="H10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -2260,144 +2260,144 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>896</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Z10" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>896</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v/>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v/>
-      </c>
-      <c r="D11" t="n">
-        <v/>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -2406,144 +2406,144 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>mimoto</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>mimoto</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>315</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>246</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v/>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v/>
-      </c>
-      <c r="D12" t="n">
-        <v/>
-      </c>
-      <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
-      </c>
-      <c r="G12" t="n">
-        <v/>
-      </c>
-      <c r="H12" t="n">
-        <v/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -2552,144 +2552,144 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -2698,144 +2698,144 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>277</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -2844,62 +2844,62 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2917,135 +2917,135 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
-      </c>
-      <c r="G15" t="n">
-        <v/>
-      </c>
-      <c r="H15" t="n">
-        <v/>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v/>
-      </c>
-      <c r="W15" t="n">
-        <v/>
-      </c>
-      <c r="X15" t="n">
-        <v/>
-      </c>
-      <c r="Y15" t="n">
-        <v/>
-      </c>
-      <c r="Z15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB15" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -481,6 +481,81 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>330</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>352</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,7 +861,7 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
@@ -796,26 +871,26 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="4" customWidth="1" min="23" max="23"/>
-    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -993,32 +1068,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>186</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1033,32 +1108,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>254</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>184</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>64</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1073,32 +1148,32 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>254</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>42</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1108,27 +1183,27 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>254</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>186</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1150,37 +1225,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>256</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1190,37 +1265,37 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>375</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>242</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1230,37 +1305,37 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>375</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>249</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -1270,37 +1345,37 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>esignet</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>375</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>269</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1312,17 +1387,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>101</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1337,7 +1412,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1352,17 +1427,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>152</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>101</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1377,7 +1452,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1392,17 +1467,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>152</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>101</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1417,7 +1492,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1432,17 +1507,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>152</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>101</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1457,7 +1532,7 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1474,17 +1549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1499,12 +1574,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1514,17 +1589,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1539,12 +1614,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1554,17 +1629,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>8</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1579,12 +1654,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1594,22 +1669,22 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>injiverify</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1636,27 +1711,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1666,7 +1741,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1676,27 +1751,27 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>216</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1706,7 +1781,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1716,27 +1791,27 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>217</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1746,32 +1821,48 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1782,37 +1873,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>224</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1822,37 +1913,37 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>224</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1862,62 +1953,78 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>224</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1928,37 +2035,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>217</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1968,37 +2075,37 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>217</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -2008,62 +2115,78 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>216</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2074,37 +2197,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>209</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -2114,37 +2237,37 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -2154,62 +2277,78 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2220,37 +2359,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2260,37 +2399,37 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2300,62 +2439,78 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>244</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>209</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2366,37 +2521,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2406,37 +2561,37 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>244</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>209</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2446,62 +2601,78 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>244</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>210</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2512,142 +2683,158 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>mimoto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>277</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>mimoto</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>492</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2658,17 +2845,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>483</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2683,12 +2870,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2698,17 +2885,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>509</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>483</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2718,17 +2905,17 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2738,62 +2925,78 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>94</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>65</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2804,27 +3007,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2834,7 +3037,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2844,27 +3047,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>104</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>70</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2874,7 +3077,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2884,27 +3087,27 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>104</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2914,32 +3117,48 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2950,126 +3169,644 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v/>
-      </c>
-      <c r="M15" t="n">
-        <v/>
-      </c>
-      <c r="N15" t="n">
-        <v/>
-      </c>
-      <c r="O15" t="n">
-        <v/>
-      </c>
-      <c r="P15" t="n">
-        <v/>
-      </c>
-      <c r="Q15" t="n">
-        <v/>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -506,56 +506,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>330</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>352</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -848,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,8 +808,8 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -867,8 +817,8 @@
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
@@ -876,8 +826,8 @@
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
@@ -885,12 +835,21 @@
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1054,6 +1013,46 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1068,32 +1067,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>612</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>591</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1108,32 +1107,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>612</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>591</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1148,32 +1147,32 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>612</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>591</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -1188,32 +1187,72 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>612</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>591</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1264,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>336</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1265,32 +1304,32 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>414</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>336</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>78</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1305,32 +1344,32 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>414</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>336</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>78</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1345,35 +1384,75 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>esignet</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>414</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>336</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>78</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1387,17 +1466,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1412,7 +1491,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1427,17 +1506,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1452,7 +1531,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1467,17 +1546,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>929</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1487,12 +1566,12 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1507,17 +1586,17 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1532,10 +1611,50 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1549,17 +1668,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1589,17 +1708,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1629,17 +1748,17 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1669,17 +1788,17 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>injiverify</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1698,6 +1817,46 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1711,32 +1870,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1751,32 +1910,32 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1791,32 +1950,32 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1831,35 +1990,75 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1873,32 +2072,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1913,32 +2112,32 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1953,32 +2152,32 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1993,35 +2192,75 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2035,32 +2274,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2075,32 +2314,32 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2115,32 +2354,32 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2155,35 +2394,75 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2197,32 +2476,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>930</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2237,32 +2516,32 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>930</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2277,32 +2556,32 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>930</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2317,35 +2596,75 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>945</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>930</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2359,27 +2678,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2399,27 +2718,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2439,27 +2758,27 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2479,27 +2798,27 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2508,6 +2827,46 @@
         </is>
       </c>
       <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2521,32 +2880,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>281</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2561,32 +2920,32 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>288</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>281</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2601,32 +2960,32 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>288</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>281</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2641,35 +3000,75 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>288</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>281</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2683,37 +3082,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>540</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>578</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2723,37 +3122,37 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>868</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>248</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2763,37 +3162,37 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>823</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>293</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2803,37 +3202,77 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>mimoto</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>540</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>579</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2845,17 +3284,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2865,39 +3304,39 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>483</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>0</t>
@@ -2905,57 +3344,57 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>164</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2965,37 +3404,77 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>204</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>164</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3007,27 +3486,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3037,7 +3516,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -3047,27 +3526,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3077,7 +3556,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -3087,27 +3566,27 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>16</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3117,7 +3596,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -3127,27 +3606,27 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3157,7 +3636,47 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3169,27 +3688,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3209,27 +3728,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -3249,27 +3768,27 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>15</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>5</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3289,27 +3808,27 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>residentui</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3318,6 +3837,46 @@
         </is>
       </c>
       <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3331,479 +3890,195 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>14-August-2025</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>13-August-2025</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -812,8 +812,8 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -845,9 +845,9 @@
     <col width="16" customWidth="1" min="37" max="37"/>
     <col width="16" customWidth="1" min="38" max="38"/>
     <col width="6" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="6" customWidth="1" min="40" max="40"/>
     <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
     <col width="4" customWidth="1" min="43" max="43"/>
     <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
@@ -1057,197 +1057,197 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
@@ -1259,167 +1259,167 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1461,167 +1461,167 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1663,167 +1663,167 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1865,167 +1865,167 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -2067,167 +2067,167 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2269,167 +2269,167 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2471,167 +2471,167 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2673,192 +2673,192 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>985</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2875,167 +2875,167 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3077,192 +3077,192 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>578</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>868</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>248</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>823</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>293</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>540</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>579</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>542</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>579</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3279,192 +3279,192 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>164</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>55</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -3481,167 +3481,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3683,192 +3683,192 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3883,169 +3883,153 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">

--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,8 +812,8 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -823,6 +823,15 @@
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -906,84 +915,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -992,80 +1081,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1074,80 +1203,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1156,80 +1325,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1238,80 +1447,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1320,80 +1569,120 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1402,80 +1691,120 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1484,80 +1813,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1566,80 +1935,120 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1648,80 +2057,120 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Z11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1730,80 +2179,120 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>433</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1812,80 +2301,120 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -1894,80 +2423,120 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1976,146 +2545,242 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
-      </c>
-      <c r="G16" t="n">
-        <v/>
-      </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>19-August-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +832,15 @@
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -955,124 +964,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1081,364 +1170,484 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1447,120 +1656,160 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1569,120 +1818,160 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>18-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1691,358 +1980,406 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>1065</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2052,475 +2389,571 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>582</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>683</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>0</t>
@@ -2540,119 +2973,143 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>0</t>
@@ -2662,119 +3119,143 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>21-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>0</t>
@@ -2784,6 +3265,30 @@
         <is>
           <t>0</t>
         </is>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/qa1-java21.xlsx
+++ b/minio-report-tracker/xlxs/qa1-java21.xlsx
@@ -1008,152 +1008,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>591</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,129 +1170,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>336</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>336</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>539</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>582</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1332,129 +1332,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>169</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1494,127 +1494,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1656,127 +1656,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1818,129 +1818,129 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>19-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>18-August-2025</t>
-        </is>
-      </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>pmpui</t>
@@ -1948,17 +1948,17 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1980,87 +1980,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2126,87 +2126,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2272,87 +2272,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1068</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>1068</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1066</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1068</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1065</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2418,87 +2418,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>288</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>288</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2564,112 +2564,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>701</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>415</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1142</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>539</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>583</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1142</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>539</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>582</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>9</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2710,112 +2710,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>204</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>164</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>169</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2856,87 +2856,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -3002,87 +3002,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>20-August-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -3148,112 +3148,112 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>22-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>21-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>20-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>19-August-2025</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
